--- a/dating-recommendation/SVD++/100/baseline vs svd++.xlsx
+++ b/dating-recommendation/SVD++/100/baseline vs svd++.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>SVD++</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>BELLKOR</t>
   </si>
@@ -26,6 +23,21 @@
   </si>
   <si>
     <t>MAE</t>
+  </si>
+  <si>
+    <t>SVD++ (k= 10, I = 200)</t>
+  </si>
+  <si>
+    <t>SVD++ (k= 50, I = 30)</t>
+  </si>
+  <si>
+    <t>SVD++ (k= 100, I = 30)</t>
+  </si>
+  <si>
+    <t>SVD++ (k= 200, I = 30)</t>
+  </si>
+  <si>
+    <t>SVD++ (k= 300, I = 30)</t>
   </si>
 </sst>
 </file>
@@ -376,41 +388,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>1.113383</v>
+        <v>1.0774889999999999</v>
       </c>
       <c r="C2">
-        <v>1.654031</v>
+        <v>1.5815589999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1.0783450000000001</v>
+      </c>
+      <c r="C3">
+        <v>1.5838220000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1.078406</v>
+      </c>
+      <c r="C4">
+        <v>1.5849489999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.09581</v>
+      </c>
+      <c r="C5">
+        <v>1.6090370000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1.113383</v>
+      </c>
+      <c r="C6">
+        <v>1.654031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
         <v>1.169805</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C7" s="1">
         <v>1.6421600000000001</v>
       </c>
     </row>
